--- a/biology/Zoologie/Euphractus_sexcinctus/Euphractus_sexcinctus.xlsx
+++ b/biology/Zoologie/Euphractus_sexcinctus/Euphractus_sexcinctus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tatou à six bandes
 Le tatou à six bandes (Euphractus sexcinctus) est une espèce de tatou d'Amérique du Sud. Il a été décrit par Carl von Linné en 1758. C'est la seule espèce du genre Euphractus.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tatou à six bandes est généralement jaunâtre présentant parfois de teinte marron ou brun-roux clair (il est parfois appelé tatou jaune). Animal terrestre solitaire, il trouve refuge dans des tanières souterraines.
 </t>
@@ -543,7 +557,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un omnivore s'alimentant d'une large variété de plantes et de matières animales.
 </t>
@@ -574,7 +590,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On le rencontre dans différents types d'habitats ouverts tel que les clairières de forêts tropicales ou les prairies humides. Ce tatou est présent au Suriname, au Brésil, en Bolivie, au Paraguay, en Uruguay et en Argentine.
 </t>
@@ -605,9 +623,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (28 févr. 2012)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (28 févr. 2012) :
 sous-espèce Euphractus sexcinctus boliviae Thomas, 1907
 sous-espèce Euphractus sexcinctus flavimanus Desmarest, 1804
 sous-espèce Euphractus sexcinctus setosus Wied, 1826
